--- a/houtai/base/biz/main/src/main/resources/static/file/工资报销封面.xlsx
+++ b/houtai/base/biz/main/src/main/resources/static/file/工资报销封面.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24640" windowHeight="15340"/>
+    <workbookView windowWidth="25660" windowHeight="15920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <r>
       <rPr>
@@ -285,7 +285,7 @@
     <t>三级租赁岗个人缴交社保</t>
   </si>
   <si>
-    <t>night</t>
+    <t>nine</t>
   </si>
   <si>
     <t>分管财务局领导意见：</t>
@@ -312,38 +312,13 @@
     <t>合    计</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>经办人（签名）：                                       会计：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                             </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 出纳：</t>
-    </r>
+    <t>人民币:sum1</t>
+  </si>
+  <si>
+    <t>sum2</t>
+  </si>
+  <si>
+    <t>经办人（签名）：                                       会计：                                出纳：</t>
   </si>
 </sst>
 </file>
@@ -351,11 +326,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -385,7 +360,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,6 +377,28 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -406,23 +410,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,29 +471,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -469,7 +481,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -484,52 +504,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,25 +526,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,37 +658,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,19 +670,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,96 +700,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -810,9 +785,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -833,15 +823,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -862,15 +843,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -882,41 +854,21 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,6 +892,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -960,26 +921,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1009,155 +950,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1195,53 +1147,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1606,23 +1546,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.5625" customWidth="1"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="54.1607142857143" customWidth="1"/>
     <col min="4" max="4" width="16.6696428571429" customWidth="1"/>
     <col min="5" max="5" width="16.2142857142857" customWidth="1"/>
-    <col min="8" max="8" width="8.77678571428571" customWidth="1"/>
+    <col min="6" max="6" width="26.7767857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" customHeight="1" spans="1:8">
+    <row r="1" ht="26" customHeight="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1631,10 +1571,8 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="28.8" spans="1:8">
+    <row r="2" ht="28.8" spans="1:6">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -1643,10 +1581,8 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
     </row>
-    <row r="3" ht="23" customHeight="1" spans="1:8">
+    <row r="3" ht="23" customHeight="1" spans="1:6">
       <c r="A3" s="1"/>
       <c r="B3" s="5" t="s">
         <v>2</v>
@@ -1655,10 +1591,8 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:8">
+    <row r="4" ht="30" customHeight="1" spans="1:6">
       <c r="A4" s="1"/>
       <c r="B4" s="6" t="s">
         <v>3</v>
@@ -1669,16 +1603,14 @@
       <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:8">
+    <row r="5" ht="30" customHeight="1" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="8" t="s">
         <v>8</v>
@@ -1690,11 +1622,9 @@
         <v>10</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
-    <row r="6" ht="30" customHeight="1" spans="1:8">
+    <row r="6" ht="30" customHeight="1" spans="1:6">
       <c r="A6" s="1"/>
       <c r="B6" s="8" t="s">
         <v>8</v>
@@ -1706,11 +1636,9 @@
         <v>12</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="19"/>
+      <c r="F6" s="19"/>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="1:8">
+    <row r="7" ht="30" customHeight="1" spans="1:6">
       <c r="A7" s="1"/>
       <c r="B7" s="8" t="s">
         <v>8</v>
@@ -1722,11 +1650,9 @@
         <v>14</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="19"/>
+      <c r="F7" s="19"/>
     </row>
-    <row r="8" ht="30" customHeight="1" spans="1:8">
+    <row r="8" ht="30" customHeight="1" spans="1:6">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1741,10 +1667,8 @@
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
     </row>
-    <row r="9" ht="30" customHeight="1" spans="1:8">
+    <row r="9" ht="30" customHeight="1" spans="1:6">
       <c r="A9" s="1"/>
       <c r="B9" s="8" t="s">
         <v>8</v>
@@ -1756,13 +1680,11 @@
         <v>19</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
     </row>
-    <row r="10" ht="30" customHeight="1" spans="1:8">
+    <row r="10" ht="30" customHeight="1" spans="1:6">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
@@ -1776,11 +1698,9 @@
         <v>23</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="19"/>
+      <c r="F10" s="19"/>
     </row>
-    <row r="11" ht="30" customHeight="1" spans="1:8">
+    <row r="11" ht="30" customHeight="1" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="8" t="s">
         <v>8</v>
@@ -1792,11 +1712,9 @@
         <v>25</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="19"/>
+      <c r="F11" s="19"/>
     </row>
-    <row r="12" ht="30" customHeight="1" spans="1:8">
+    <row r="12" ht="30" customHeight="1" spans="1:6">
       <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
@@ -1811,10 +1729,8 @@
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
     </row>
-    <row r="13" ht="30" customHeight="1" spans="1:8">
+    <row r="13" ht="30" customHeight="1" spans="1:6">
       <c r="A13" s="1"/>
       <c r="B13" s="8" t="s">
         <v>8</v>
@@ -1826,13 +1742,11 @@
         <v>30</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="24"/>
     </row>
-    <row r="14" ht="30" customHeight="1" spans="1:8">
+    <row r="14" ht="30" customHeight="1" spans="1:6">
       <c r="A14" s="1"/>
       <c r="B14" s="8" t="s">
         <v>8</v>
@@ -1844,11 +1758,9 @@
         <v>33</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
+      <c r="F14" s="23"/>
     </row>
-    <row r="15" ht="30" customHeight="1" spans="1:8">
+    <row r="15" ht="30" customHeight="1" spans="1:6">
       <c r="A15" s="1"/>
       <c r="B15" s="8" t="s">
         <v>8</v>
@@ -1860,11 +1772,9 @@
         <v>35</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
+      <c r="F15" s="23"/>
     </row>
-    <row r="16" ht="30" customHeight="1" spans="1:8">
+    <row r="16" ht="30" customHeight="1" spans="1:6">
       <c r="A16" s="1"/>
       <c r="B16" s="8" t="s">
         <v>8</v>
@@ -1876,48 +1786,41 @@
         <v>37</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
+      <c r="F16" s="23"/>
     </row>
-    <row r="17" ht="30" customHeight="1" spans="1:8">
+    <row r="17" ht="30" customHeight="1" spans="1:6">
       <c r="A17" s="1"/>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="13" t="str">
-        <f>CONCATENATE("人民币:",LEFTB(RIGHTB("玖捌柒陆伍肆叁贰壹零",LEFTB(RIGHTB(REPLACE(USDOLLAR(D17),1,1,0),13),1)*2+2),2),"仟",LEFTB(RIGHTB("玖捌柒陆伍肆叁贰壹零",LEFTB(RIGHTB(REPLACE(USDOLLAR(D17),1,1,0),12),1)*2+2),2),"佰",LEFTB(RIGHTB("玖捌柒陆伍肆叁贰壹零",LEFTB(RIGHTB(REPLACE(USDOLLAR(D17),1,1,0),10),1)*2+2),2),"拾",LEFTB(RIGHTB("玖捌柒陆伍肆叁贰壹零",LEFTB(RIGHTB(REPLACE(USDOLLAR(D17),1,1,0),9),1)*2+2),2),"万",LEFTB(RIGHTB("玖捌柒陆伍肆叁贰壹零",LEFTB(RIGHTB(REPLACE(USDOLLAR(D17),1,1,0),8),1)*2+2),2),"仟",LEFTB(RIGHTB("玖捌柒陆伍肆叁贰壹零",LEFTB(RIGHTB(REPLACE(USDOLLAR(D17),1,1,0),6),1)*2+2),2),"佰",LEFTB(RIGHTB("玖捌柒陆伍肆叁贰壹零",LEFTB(RIGHTB(REPLACE(USDOLLAR(D17),1,1,0),5),1)*2+2),2),"拾",LEFTB(RIGHTB("玖捌柒陆伍肆叁贰壹零",LEFTB(RIGHTB(REPLACE(USDOLLAR(D17),1,1,0),4),1)*2+2),2),"元",LEFTB(RIGHTB("玖捌柒陆伍肆叁贰壹零",LEFTB(RIGHTB(REPLACE(USDOLLAR(D17),1,1,0),2),1)*2+2),2),"角",LEFTB(RIGHTB("玖捌柒陆伍肆叁贰壹零",RIGHTB(REPLACE(USDOLLAR(D17),1,1,0),1)*2+2),2),"分")</f>
-        <v>人民币:仟佰拾万仟佰拾元角分</v>
-      </c>
-      <c r="D17" s="10">
-        <f>SUM(D5:D16)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
+      <c r="C17" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="23"/>
     </row>
-    <row r="18" ht="30" customHeight="1" spans="1:8">
+    <row r="18" ht="30" customHeight="1" spans="1:6">
       <c r="A18" s="1"/>
-      <c r="B18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="B18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="F5:H8"/>
-    <mergeCell ref="F10:H12"/>
-    <mergeCell ref="F14:H17"/>
+  <mergeCells count="7">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="F14:F17"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/houtai/base/biz/main/src/main/resources/static/file/工资报销封面.xlsx
+++ b/houtai/base/biz/main/src/main/resources/static/file/工资报销封面.xlsx
@@ -326,11 +326,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -367,7 +367,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,6 +377,29 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -388,30 +411,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,6 +434,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -433,78 +457,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,13 +526,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,25 +622,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,139 +694,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,6 +869,24 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -890,18 +908,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -920,189 +961,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1549,7 +1549,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelCol="5"/>
@@ -1557,7 +1557,7 @@
     <col min="1" max="1" width="10.5625" customWidth="1"/>
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="54.1607142857143" customWidth="1"/>
-    <col min="4" max="4" width="16.6696428571429" customWidth="1"/>
+    <col min="4" max="4" width="28.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="16.2142857142857" customWidth="1"/>
     <col min="6" max="6" width="26.7767857142857" customWidth="1"/>
   </cols>
